--- a/lib/PHPExcel/templates/Invoice.xlsx
+++ b/lib/PHPExcel/templates/Invoice.xlsx
@@ -12,21 +12,25 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="9195" windowHeight="5460"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="InvoiceFR" sheetId="1" r:id="rId1"/>
+    <sheet name="InvoiceUSA" sheetId="3" r:id="rId2"/>
+    <sheet name="Template" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">Invoice!$A$13:$G$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Database" localSheetId="1">InvoiceUSA!$A$13:$G$48</definedName>
+    <definedName name="_xlnm.Database" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Database">InvoiceFR!$A$13:$G$48</definedName>
+    <definedName name="_xlnm.Data_Form" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Data_Form">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">InvoiceFR!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">InvoiceUSA!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">N° Facture / Invoice    </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>:</t>
   </si>
@@ -70,49 +74,147 @@
     <t xml:space="preserve">A PAYER  </t>
   </si>
   <si>
-    <t>TOTAL €UROS H.T.</t>
-  </si>
-  <si>
-    <t>€UROS. TTC</t>
-  </si>
-  <si>
     <t>N° Travail Metcut</t>
   </si>
   <si>
     <t>Sté Générale - Nantes : IBAN FR76 3000 3014 7000 0201 0322 687. SWIFT : SOGEFRPP</t>
   </si>
   <si>
-    <t>Date de règlement / Payable on :</t>
-  </si>
-  <si>
     <t>Pas d'escompte pour paiement anticipé. Pénalité : 3 fois le taux d'intérêt légal par mois de retard. Indemnité forfaitaire pour frais de recouvrement 40 €.</t>
   </si>
   <si>
-    <t>T.V.A. €UROS 20 %</t>
-  </si>
-  <si>
-    <t>N° Client / N° Commande</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Adresse facturation / Billing Adress :</t>
+    <t>Prefixe</t>
+  </si>
+  <si>
+    <t>No. Éprouvette</t>
+  </si>
+  <si>
+    <t>No. essai</t>
+  </si>
+  <si>
+    <t>No. de fichier</t>
+  </si>
+  <si>
+    <t>Date de l'essai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp. </t>
+  </si>
+  <si>
+    <t>(C°)</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t>(Hz)</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Fréquence 2</t>
+  </si>
+  <si>
+    <t>Cycle Final</t>
+  </si>
+  <si>
+    <t>tps</t>
+  </si>
+  <si>
+    <t>Hr Sup</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Customer VAT Number</t>
+  </si>
+  <si>
+    <t>Purchase Order Number</t>
+  </si>
+  <si>
+    <t>Job Number</t>
+  </si>
+  <si>
+    <t>Supplier Number</t>
+  </si>
+  <si>
+    <t>Carquefou, on</t>
+  </si>
+  <si>
+    <t>Billing Adress :</t>
+  </si>
+  <si>
+    <t>N° Facture</t>
+  </si>
+  <si>
+    <t>N° Commande</t>
+  </si>
+  <si>
+    <t>N° Prestataire</t>
+  </si>
+  <si>
+    <t>Adresse facturation :</t>
+  </si>
+  <si>
+    <t>TOTAL H.T.</t>
+  </si>
+  <si>
+    <t>T.V.A. 20 %</t>
+  </si>
+  <si>
+    <t>Date de règlement</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>A PAYER  TTC</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>NO TVA</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>No discount for early payment. Penalty: 3 times the legal rate per month of delay. Lump sum allowance recovery 40 €uros</t>
+  </si>
+  <si>
+    <t>Wire transfer on our bank : Société Générale Iban : FR76 3000 3014 7000 0780 1122 389 - SWIFT : SOGEFRPP</t>
+  </si>
+  <si>
+    <t>Wire transfer on our bank : Sté Générale - Nantes : IBAN FR76 3000 3014 7000 0201 0322 687. SWIFT : SOGEFRPP</t>
+  </si>
+  <si>
+    <t>Sté Générale - Nantes : IBAN FR76 3000 3014 7000 0780 1122 389 - SWIFT : SOGEFRPP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€];[Red]\-#,##0.00\ [$€]"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="169" formatCode="#\ ##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00_)"/>
+    <numFmt numFmtId="171" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -210,13 +312,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -228,61 +353,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -326,13 +398,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,23 +485,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -378,13 +495,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -393,10 +506,6 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -414,9 +523,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -464,21 +570,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -497,11 +588,178 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Milliers" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,6 +863,85 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4405766F-5386-44E6-ACF1-597DC344E379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="904875" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 2" descr="Logo2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72970244-AE6D-46A6-8156-BAB2FC93480B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -987,7 +1324,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,527 +1337,533 @@
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="3"/>
-    <col min="9" max="9" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="10" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+        <v>42</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H2" s="68"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H3" s="68"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
+      <c r="I5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" s="5"/>
+      <c r="I7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4"/>
+      <c r="I8" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
+      <c r="F12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="39"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="39"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="39"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="39"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="39"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="39"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="39"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="39"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="39"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="39"/>
-    </row>
-    <row r="41" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="85"/>
+    </row>
+    <row r="44" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="90"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E46" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="16">
-        <f>SUM(G13:G45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="91"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="79"/>
+    </row>
+    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="25">
-        <f>+G46*20%</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="26"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="29">
-        <f>G46+G48</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E51" s="19"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="84"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E50" s="81"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="82"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="35">
-        <f>+G9+45</f>
-        <v>45</v>
-      </c>
+      <c r="A52" s="19"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-    </row>
-    <row r="54" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="26"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="15"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="26"/>
+    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="15"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="20"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="20"/>
+      <c r="I57" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1534,4 +1877,770 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="10" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="47"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="47"/>
+      <c r="I3" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+      <c r="I5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="I7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="I8" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
+    </row>
+    <row r="19" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="101"/>
+    </row>
+    <row r="20" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="96"/>
+    </row>
+    <row r="21" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="101"/>
+    </row>
+    <row r="23" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="101"/>
+    </row>
+    <row r="25" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="102"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="96"/>
+    </row>
+    <row r="26" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+    </row>
+    <row r="28" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+    </row>
+    <row r="29" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+    </row>
+    <row r="30" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="109"/>
+    </row>
+    <row r="31" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="109"/>
+    </row>
+    <row r="32" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="109"/>
+    </row>
+    <row r="33" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="109"/>
+    </row>
+    <row r="38" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="109"/>
+    </row>
+    <row r="39" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="109"/>
+    </row>
+    <row r="41" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="99"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="96"/>
+    </row>
+    <row r="42" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="99"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="96"/>
+    </row>
+    <row r="43" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="99"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="112"/>
+    </row>
+    <row r="44" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="96"/>
+    </row>
+    <row r="45" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="112"/>
+    </row>
+    <row r="46" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="77"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="112"/>
+    </row>
+    <row r="47" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="112"/>
+    </row>
+    <row r="48" spans="1:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="115"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="78"/>
+    </row>
+    <row r="49" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="115"/>
+      <c r="H49" s="112"/>
+    </row>
+    <row r="50" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="77"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="118"/>
+    </row>
+    <row r="51" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="80"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="112"/>
+    </row>
+    <row r="52" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="119"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="112"/>
+    </row>
+    <row r="53" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="121"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="112"/>
+    </row>
+    <row r="54" spans="1:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="117"/>
+      <c r="I54" s="78"/>
+    </row>
+    <row r="55" spans="1:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="117"/>
+      <c r="I55" s="78"/>
+    </row>
+    <row r="56" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="112"/>
+      <c r="I56" s="118"/>
+    </row>
+    <row r="57" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="112"/>
+      <c r="I57" s="118"/>
+    </row>
+    <row r="58" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="112"/>
+    </row>
+    <row r="59" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="112"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.78740157480314965" header="0.11811023622047245" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;"Times New Roman,Normal"&amp;8&amp;K04-024METCUT RECHERCHES SAS
+22 rue du Moulin de la Garde 44477 CARQUEFOU Cedex. Tél : + 33 2 40 25 25 07 Fax : + 33 2 40 25 25 13 . www.metcut.com 
+SAS au capital de 206 250 € -  APE 7112B - TVA FR10388107443 000 11 </oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="51"/>
+    <col min="5" max="16384" width="11.42578125" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lib/PHPExcel/templates/Invoice.xlsx
+++ b/lib/PHPExcel/templates/Invoice.xlsx
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/lib/PHPExcel/templates/Invoice.xlsx
+++ b/lib/PHPExcel/templates/Invoice.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{82249E82-2A17-4391-AD71-EF3A818C6F6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9195" windowHeight="5460"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9195" windowHeight="5460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceFR" sheetId="1" r:id="rId1"/>
@@ -203,18 +204,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€];[Red]\-#,##0.00\ [$€]"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="169" formatCode="#\ ##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
     <numFmt numFmtId="171" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -250,14 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -281,33 +273,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,9 +429,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -488,96 +453,24 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -588,41 +481,41 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -652,114 +545,24 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Milliers" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1320,11 +1123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1345,41 +1148,41 @@
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H2" s="47"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H3" s="47"/>
-      <c r="I3" s="93" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="54" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1388,10 +1191,10 @@
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1403,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1416,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1459,411 +1262,1592 @@
     </row>
     <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="75"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="36"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="86"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="87"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="86"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="85"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="85"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="89"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="23"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="36"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="85"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="86"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="86"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="86"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="86"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="24"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="24"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="24"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="24"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="85"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="36"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="85"/>
+      <c r="G42" s="53"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="36"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="85"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="90"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="90"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="53"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="91"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="79"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="15"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E50" s="81"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="82"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="53"/>
       <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="15"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="15"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="13"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="53"/>
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="53"/>
       <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="53"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="53"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="53"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="53"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="53"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="53"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="53"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="53"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="53"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="53"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="53"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="53"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="53"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="53"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="53"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="53"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="53"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="53"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="53"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="53"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="53"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="53"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="53"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="53"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="53"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="53"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="53"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="53"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="53"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="53"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="53"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="53"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="53"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="53"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="53"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="53"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="53"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="53"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="53"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="53"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="53"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="53"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="53"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="53"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="53"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="53"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="53"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="53"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="53"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="53"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="53"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="53"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="53"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="53"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="53"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="53"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="53"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="53"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="53"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="53"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="53"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="53"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="53"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="53"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="53"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="53"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="53"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="53"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="19"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="53"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="53"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="53"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="53"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="53"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="53"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="53"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="53"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="53"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="53"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="53"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="53"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="53"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="53"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="53"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="53"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="53"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="53"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="53"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="53"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="53"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="53"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="53"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="53"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="53"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="53"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="53"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="53"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="53"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="53"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="53"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="53"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="53"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="53"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="53"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="53"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="53"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="53"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="53"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="53"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="53"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="53"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1880,11 +2864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1905,41 +2889,41 @@
       <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H2" s="47"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H3" s="47"/>
-      <c r="I3" s="93" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="54" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1948,10 +2932,10 @@
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1963,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1976,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2018,435 +3002,1610 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="36"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-    </row>
-    <row r="17" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
-    </row>
-    <row r="19" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="101"/>
-    </row>
-    <row r="20" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="96"/>
-    </row>
-    <row r="21" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="96"/>
-    </row>
-    <row r="22" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="101"/>
-    </row>
-    <row r="23" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="96"/>
-    </row>
-    <row r="24" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="101"/>
-    </row>
-    <row r="25" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="96"/>
-    </row>
-    <row r="26" spans="1:8" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-    </row>
-    <row r="28" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-    </row>
-    <row r="29" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-    </row>
-    <row r="30" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="109"/>
-    </row>
-    <row r="31" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="109"/>
-    </row>
-    <row r="32" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="109"/>
-    </row>
-    <row r="33" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="109"/>
-    </row>
-    <row r="34" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="109"/>
-    </row>
-    <row r="36" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="109"/>
-    </row>
-    <row r="37" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="109"/>
-    </row>
-    <row r="38" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="109"/>
-    </row>
-    <row r="39" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="109"/>
-    </row>
-    <row r="40" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="109"/>
-    </row>
-    <row r="41" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="96"/>
-    </row>
-    <row r="42" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="96"/>
-    </row>
-    <row r="43" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="112"/>
-    </row>
-    <row r="44" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="96"/>
-    </row>
-    <row r="45" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="112"/>
-    </row>
-    <row r="46" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="77"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="112"/>
-    </row>
-    <row r="47" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H47" s="112"/>
-    </row>
-    <row r="48" spans="1:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="115"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="78"/>
-    </row>
-    <row r="49" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="115"/>
-      <c r="H49" s="112"/>
-    </row>
-    <row r="50" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="77"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="118"/>
-    </row>
-    <row r="51" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="80"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="112"/>
-    </row>
-    <row r="52" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="119"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="112"/>
-    </row>
-    <row r="53" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="121"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="112"/>
-    </row>
-    <row r="54" spans="1:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="117"/>
-      <c r="I54" s="78"/>
-    </row>
-    <row r="55" spans="1:9" s="118" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="117"/>
-      <c r="I55" s="78"/>
-    </row>
-    <row r="56" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="112"/>
-      <c r="I56" s="118"/>
-    </row>
-    <row r="57" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="112"/>
-      <c r="I57" s="118"/>
-    </row>
-    <row r="58" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="112"/>
-    </row>
-    <row r="59" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="112"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="55"/>
+    </row>
+    <row r="21" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="55"/>
+    </row>
+    <row r="22" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="55"/>
+    </row>
+    <row r="24" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="57"/>
+    </row>
+    <row r="31" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="57"/>
+    </row>
+    <row r="32" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="57"/>
+    </row>
+    <row r="34" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="57"/>
+    </row>
+    <row r="35" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="57"/>
+    </row>
+    <row r="38" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="57"/>
+    </row>
+    <row r="40" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="57"/>
+    </row>
+    <row r="41" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="55"/>
+    </row>
+    <row r="42" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="55"/>
+    </row>
+    <row r="43" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="58"/>
+    </row>
+    <row r="44" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="55"/>
+    </row>
+    <row r="45" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="58"/>
+    </row>
+    <row r="46" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="58"/>
+    </row>
+    <row r="47" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="58"/>
+    </row>
+    <row r="48" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="51"/>
+    </row>
+    <row r="49" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="58"/>
+    </row>
+    <row r="50" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="60"/>
+    </row>
+    <row r="51" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="58"/>
+    </row>
+    <row r="52" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="58"/>
+    </row>
+    <row r="53" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="58"/>
+    </row>
+    <row r="54" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="51"/>
+    </row>
+    <row r="55" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="51"/>
+    </row>
+    <row r="56" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="60"/>
+    </row>
+    <row r="57" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="60"/>
+    </row>
+    <row r="58" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="58"/>
+    </row>
+    <row r="59" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="58"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="19"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2462,7 +4621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2471,174 +4630,174 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="51"/>
-    <col min="5" max="16384" width="11.42578125" style="52"/>
+    <col min="1" max="1" width="4.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="25"/>
+    <col min="5" max="16384" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="63" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="64"/>
+      <c r="D18" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
